--- a/Assets/Resources/ExcelData/CharacterInfoTable.xlsx
+++ b/Assets/Resources/ExcelData/CharacterInfoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_DungeonMayer\Assets\Resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C93DDD-EC5C-4D58-8447-4ED9C9716EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375C1A3A-475E-4C72-AA97-AE3C8B8CA5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{B7C1E6BB-5843-456B-8CF8-F8F9A197622A}"/>
+    <workbookView xWindow="1995" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{B7C1E6BB-5843-456B-8CF8-F8F9A197622A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
